--- a/publipostage2/047wq3n50/liste_essais_cliniques_identifies_047wq3n50.xlsx
+++ b/publipostage2/047wq3n50/liste_essais_cliniques_identifies_047wq3n50.xlsx
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>status_label</t>
+          <t>statut_label</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">

--- a/publipostage2/047wq3n50/liste_essais_cliniques_identifies_047wq3n50.xlsx
+++ b/publipostage2/047wq3n50/liste_essais_cliniques_identifies_047wq3n50.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,50 +446,55 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>statut_name</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>NCTId</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>eudraCT</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>CTIS</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>completion_year</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>clinical_trial_title</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>acronym</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>results_1y</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>results_3y</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>results</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>intervention_type</t>
         </is>
@@ -508,36 +513,41 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>NCT03554863</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>Does Optiflow Anesthesia Allow Anethesia Induction "Without Hands" ?</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>OPTIFLOW</t>
         </is>
       </c>
-      <c r="I2" t="b">
-        <v>0</v>
-      </c>
       <c r="J2" t="b">
         <v>0</v>
       </c>
       <c r="K2" t="b">
         <v>0</v>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="L2" t="b">
+        <v>0</v>
+      </c>
+      <c r="M2" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -556,36 +566,41 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>NCT03504462</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>Specific Block of the Plantar Branches of the Tibial Nerve Under Ultrasound for Foot Surgery : A Monocentric Pilot Study</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>DISTIB</t>
         </is>
       </c>
-      <c r="I3" t="b">
-        <v>0</v>
-      </c>
       <c r="J3" t="b">
         <v>0</v>
       </c>
       <c r="K3" t="b">
         <v>0</v>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="L3" t="b">
+        <v>0</v>
+      </c>
+      <c r="M3" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -604,36 +619,41 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 12 mois</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
           <t>NCT03098524</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>Low Tidal MEChanical Ventilation Against NO Ventilation During Cardiopulmonary Bypass Heart Surgery : a Randomized Controlled Trial</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>MECANO</t>
         </is>
       </c>
-      <c r="I4" t="b">
-        <v>1</v>
-      </c>
       <c r="J4" t="b">
         <v>1</v>
       </c>
       <c r="K4" t="b">
         <v>1</v>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="L4" t="b">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -652,40 +672,45 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 12 mois</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
           <t>NCT03734159</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>2018-002842-35</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>Interest of Parasternal Block to Limit the Doses of Anesthetics Necessary for the Maintenance of Arterial Blood Pressure and Heart Rate in the Recommended Values During Sternotomy in Patients Undergoing Coronary Artery Bypass Graft</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>PARA</t>
         </is>
       </c>
-      <c r="I5" t="b">
-        <v>1</v>
-      </c>
       <c r="J5" t="b">
         <v>1</v>
       </c>
       <c r="K5" t="b">
         <v>1</v>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="L5" t="b">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -704,36 +729,41 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
           <t>NCT04213781</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>Does Audiovisual Distraction Decrease the Use of Hypnotic Drugs During Oocyte Retrieval?</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>Happy-Fiv</t>
         </is>
       </c>
-      <c r="I6" t="b">
-        <v>0</v>
-      </c>
       <c r="J6" t="b">
         <v>0</v>
       </c>
       <c r="K6" t="b">
         <v>0</v>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="L6" t="b">
+        <v>0</v>
+      </c>
+      <c r="M6" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -752,36 +782,41 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
           <t>NCT03926910</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>Test of Ventricular Stimulation as Immediate Predictor of Hypovolemia After Cardiac Surgery: Non-randomized Open Label Trial.</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>TESTI</t>
         </is>
       </c>
-      <c r="I7" t="b">
-        <v>0</v>
-      </c>
       <c r="J7" t="b">
         <v>0</v>
       </c>
       <c r="K7" t="b">
         <v>0</v>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="L7" t="b">
+        <v>0</v>
+      </c>
+      <c r="M7" t="inlineStr">
         <is>
           <t>DIAGNOSTIC_TEST</t>
         </is>
@@ -800,36 +835,41 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 12 mois</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
           <t>NCT03834129</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>Interest of Intravenous Dexmedetomidine (Dexdor®) in the Knee Replacement Surgery Performed Under Locoregional Anesthesia: a Randomized, Double Blind, Controlled Clinical Trial</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>DIVA</t>
         </is>
       </c>
-      <c r="I8" t="b">
-        <v>1</v>
-      </c>
       <c r="J8" t="b">
         <v>1</v>
       </c>
       <c r="K8" t="b">
         <v>1</v>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="L8" t="b">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -848,36 +888,41 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
           <t>NCT03566121</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>Prediction of the Severity of Female SUI by Measuring New Static and Dynamic Ultrasound Parameters of the Urethra</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>PRESIUS</t>
         </is>
       </c>
-      <c r="I9" t="b">
-        <v>0</v>
-      </c>
       <c r="J9" t="b">
         <v>0</v>
       </c>
       <c r="K9" t="b">
         <v>0</v>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="L9" t="b">
+        <v>0</v>
+      </c>
+      <c r="M9" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -896,36 +941,41 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 12 mois</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
           <t>NCT03956264</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>Interest of Virtual Reality in the Management of Anxiety and Pain Related to Post-cardiac Surgery Care</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>ARVACC</t>
         </is>
       </c>
-      <c r="I10" t="b">
-        <v>1</v>
-      </c>
       <c r="J10" t="b">
         <v>1</v>
       </c>
       <c r="K10" t="b">
         <v>1</v>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="L10" t="b">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -944,36 +994,41 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
           <t>NCT04494100</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>WALANT Technique (Wide Awake Local Anesthesia No Tourniquet) in Association With Analgesic Troncular Blocks at the Wirst for Carpal Tunnel Release.</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>WALA</t>
         </is>
       </c>
-      <c r="I11" t="b">
-        <v>0</v>
-      </c>
       <c r="J11" t="b">
         <v>0</v>
       </c>
       <c r="K11" t="b">
         <v>0</v>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="L11" t="b">
+        <v>0</v>
+      </c>
+      <c r="M11" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -992,36 +1047,41 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
           <t>NCT05306262</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>Effects of Catalepsy on the Parasympathetic Tone Assessed by ANI (Analgesia/Nociception Index) and on Absorption, Dissociation and Perception of Time During the Hypnotic Trance.</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>CATALHYPNOANI</t>
         </is>
       </c>
-      <c r="I12" t="b">
-        <v>0</v>
-      </c>
       <c r="J12" t="b">
         <v>0</v>
       </c>
       <c r="K12" t="b">
         <v>0</v>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="L12" t="b">
+        <v>0</v>
+      </c>
+      <c r="M12" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -1040,36 +1100,41 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
           <t>NCT04046744</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>Axillary Block in Association With Analgesic Truncal Blocks of the Median and Radial Nerves at the Elbow for Wrist Surgery.</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>BAXASSO</t>
         </is>
       </c>
-      <c r="I13" t="b">
-        <v>0</v>
-      </c>
       <c r="J13" t="b">
         <v>0</v>
       </c>
       <c r="K13" t="b">
         <v>0</v>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="L13" t="b">
+        <v>0</v>
+      </c>
+      <c r="M13" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -1088,40 +1153,45 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 36 mois</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
           <t>NCT04433390</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>2020-000087-26</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr">
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>Time to Transit Recovery After Treatment With Naloxegol in Cardiac Surgery Intensive Care Trial</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>TRANSIT</t>
         </is>
       </c>
-      <c r="I14" t="b">
-        <v>0</v>
-      </c>
       <c r="J14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K14" t="b">
         <v>1</v>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="L14" t="b">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -1140,36 +1210,41 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
           <t>NCT04890860</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr">
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>Detection of Right Ventricular Dysfunction by Portal Vein Doppler After Cardiac Surgery</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>DVDDP</t>
         </is>
       </c>
-      <c r="I15" t="b">
-        <v>0</v>
-      </c>
       <c r="J15" t="b">
         <v>0</v>
       </c>
       <c r="K15" t="b">
         <v>0</v>
       </c>
-      <c r="L15" t="inlineStr">
+      <c r="L15" t="b">
+        <v>0</v>
+      </c>
+      <c r="M15" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -1188,36 +1263,41 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
           <t>NCT04593953</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr">
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>Efficacy of Thoraco-Lumbar Interfascial Plane (TLIP) Block for Postoperative Analgesia of Lumbar Spinal Fusion</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>ETLA</t>
         </is>
       </c>
-      <c r="I16" t="b">
-        <v>0</v>
-      </c>
       <c r="J16" t="b">
         <v>0</v>
       </c>
       <c r="K16" t="b">
         <v>0</v>
       </c>
-      <c r="L16" t="inlineStr">
+      <c r="L16" t="b">
+        <v>0</v>
+      </c>
+      <c r="M16" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -1236,36 +1316,41 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
           <t>NCT05068219</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr">
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>Efficacy of a Contract-Relax Technique in the Physical Therapy Management of Diaphragmatic Paresis After Cardiac Surgery</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>COREDIA</t>
         </is>
       </c>
-      <c r="I17" t="b">
-        <v>0</v>
-      </c>
       <c r="J17" t="b">
         <v>0</v>
       </c>
       <c r="K17" t="b">
         <v>0</v>
       </c>
-      <c r="L17" t="inlineStr">
+      <c r="L17" t="b">
+        <v>0</v>
+      </c>
+      <c r="M17" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -1284,40 +1369,45 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 12 mois</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
           <t>NCT05072704</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>2021-003703-18</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr">
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>Opioid Free Anesthesia in Total Hip Arthroplasty. A Randomized, Controlled and Triple-blind Clinical Trial</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>OFATHA</t>
         </is>
       </c>
-      <c r="I18" t="b">
-        <v>1</v>
-      </c>
       <c r="J18" t="b">
         <v>1</v>
       </c>
       <c r="K18" t="b">
         <v>1</v>
       </c>
-      <c r="L18" t="inlineStr">
+      <c r="L18" t="b">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -1336,36 +1426,41 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 12 mois</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
           <t>NCT03773822</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr">
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>Low Dose of Hydrocortisone and Fludrocortisone in Adult Cardiogenic Shock. A Multicenter, Prospective, Double-blind, Randomized, Placebo-controlled Study</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>COCCA</t>
         </is>
       </c>
-      <c r="I19" t="b">
-        <v>1</v>
-      </c>
       <c r="J19" t="b">
         <v>1</v>
       </c>
       <c r="K19" t="b">
         <v>1</v>
       </c>
-      <c r="L19" t="inlineStr">
+      <c r="L19" t="b">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr">
         <is>
           <t>COMBINATION_PRODUCT</t>
         </is>
@@ -1384,36 +1479,41 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
           <t>NCT04607122</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr">
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>Interest of Low-dose Landiolol Administration After Cardiac Surgery for the Prevention of Postoperative Atrial Fibrillation</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>LANDIPROTEC</t>
         </is>
       </c>
-      <c r="I20" t="b">
-        <v>0</v>
-      </c>
       <c r="J20" t="b">
         <v>0</v>
       </c>
       <c r="K20" t="b">
         <v>0</v>
       </c>
-      <c r="L20" t="inlineStr">
+      <c r="L20" t="b">
+        <v>0</v>
+      </c>
+      <c r="M20" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -1432,36 +1532,41 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
           <t>NCT04206371</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr">
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>Longitudinal Follow-up of Patients With Defibrillator Threshold Testing During Implantable Cardioverter Defibrillator (ICD) Replacement</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>T-DEF</t>
         </is>
       </c>
-      <c r="I21" t="b">
-        <v>0</v>
-      </c>
       <c r="J21" t="b">
         <v>0</v>
       </c>
       <c r="K21" t="b">
         <v>0</v>
       </c>
-      <c r="L21" t="inlineStr">
+      <c r="L21" t="b">
+        <v>0</v>
+      </c>
+      <c r="M21" t="inlineStr">
         <is>
           <t>DIAGNOSTIC_TEST</t>
         </is>

--- a/publipostage2/047wq3n50/liste_essais_cliniques_identifies_047wq3n50.xlsx
+++ b/publipostage2/047wq3n50/liste_essais_cliniques_identifies_047wq3n50.xlsx
@@ -55,16 +55,16 @@
     <t>intervention_type</t>
   </si>
   <si>
-    <t>⬛</t>
-  </si>
-  <si>
-    <t>🟩</t>
-  </si>
-  <si>
-    <t>🟧</t>
-  </si>
-  <si>
-    <t>noir</t>
+    <t>📘</t>
+  </si>
+  <si>
+    <t>📗</t>
+  </si>
+  <si>
+    <t>📙</t>
+  </si>
+  <si>
+    <t>bleu</t>
   </si>
   <si>
     <t>vert</t>

--- a/publipostage2/047wq3n50/liste_essais_cliniques_identifies_047wq3n50.xlsx
+++ b/publipostage2/047wq3n50/liste_essais_cliniques_identifies_047wq3n50.xlsx
@@ -55,13 +55,13 @@
     <t>intervention_type</t>
   </si>
   <si>
-    <t>📘</t>
-  </si>
-  <si>
-    <t>📗</t>
-  </si>
-  <si>
-    <t>📙</t>
+    <t>⚠️</t>
+  </si>
+  <si>
+    <t>✅</t>
+  </si>
+  <si>
+    <t>+3</t>
   </si>
   <si>
     <t>bleu</t>

--- a/publipostage2/047wq3n50/liste_essais_cliniques_identifies_047wq3n50.xlsx
+++ b/publipostage2/047wq3n50/liste_essais_cliniques_identifies_047wq3n50.xlsx
@@ -64,7 +64,7 @@
     <t>+3</t>
   </si>
   <si>
-    <t>bleu</t>
+    <t>noir</t>
   </si>
   <si>
     <t>vert</t>
@@ -73,13 +73,13 @@
     <t>orange</t>
   </si>
   <si>
-    <t>pas de résultat ni de publication</t>
-  </si>
-  <si>
-    <t>résultat et / ou publication posté dans les 12 mois</t>
-  </si>
-  <si>
-    <t>résultat et / ou publication posté dans les 36 mois</t>
+    <t>pas de résultat postés ni publiés</t>
+  </si>
+  <si>
+    <t>résultat postés ou publiés dans les 12 mois</t>
+  </si>
+  <si>
+    <t>résultat postés ou publiés dans les 36 mois</t>
   </si>
   <si>
     <t>NCT03554863</t>

--- a/publipostage2/047wq3n50/liste_essais_cliniques_identifies_047wq3n50.xlsx
+++ b/publipostage2/047wq3n50/liste_essais_cliniques_identifies_047wq3n50.xlsx
@@ -43,84 +43,84 @@
     <t>intervention_type</t>
   </si>
   <si>
+    <t>1</t>
+  </si>
+  <si>
     <t>4</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>2</t>
   </si>
   <si>
+    <t>1: résultats postés ou publiés dans les 12 mois</t>
+  </si>
+  <si>
     <t>4: pas de résultats postés ni publiés</t>
   </si>
   <si>
-    <t>1: résultats postés ou publiés dans les 12 mois</t>
-  </si>
-  <si>
     <t>2: résultats postés ou publiés entre 12 et 36 mois</t>
   </si>
   <si>
+    <t>NCT03734159</t>
+  </si>
+  <si>
     <t>NCT03554863</t>
   </si>
   <si>
+    <t>NCT03098524</t>
+  </si>
+  <si>
     <t>NCT03504462</t>
   </si>
   <si>
-    <t>NCT03098524</t>
-  </si>
-  <si>
-    <t>NCT03734159</t>
+    <t>NCT03926910</t>
   </si>
   <si>
     <t>NCT04213781</t>
   </si>
   <si>
-    <t>NCT03926910</t>
+    <t>NCT03566121</t>
+  </si>
+  <si>
+    <t>NCT03956264</t>
   </si>
   <si>
     <t>NCT03834129</t>
   </si>
   <si>
-    <t>NCT03566121</t>
-  </si>
-  <si>
-    <t>NCT03956264</t>
-  </si>
-  <si>
     <t>NCT04494100</t>
   </si>
   <si>
+    <t>NCT04046744</t>
+  </si>
+  <si>
+    <t>NCT04593953</t>
+  </si>
+  <si>
     <t>NCT05306262</t>
   </si>
   <si>
-    <t>NCT04046744</t>
+    <t>NCT04890860</t>
   </si>
   <si>
     <t>NCT04433390</t>
   </si>
   <si>
-    <t>NCT04890860</t>
-  </si>
-  <si>
-    <t>NCT04593953</t>
+    <t>NCT04206371</t>
+  </si>
+  <si>
+    <t>NCT03773822</t>
+  </si>
+  <si>
+    <t>NCT04607122</t>
+  </si>
+  <si>
+    <t>NCT05072704</t>
   </si>
   <si>
     <t>NCT05068219</t>
   </si>
   <si>
-    <t>NCT05072704</t>
-  </si>
-  <si>
-    <t>NCT03773822</t>
-  </si>
-  <si>
-    <t>NCT04607122</t>
-  </si>
-  <si>
-    <t>NCT04206371</t>
-  </si>
-  <si>
     <t>2018-002842-35</t>
   </si>
   <si>
@@ -145,133 +145,133 @@
     <t>2023</t>
   </si>
   <si>
+    <t>Interest of Parasternal Block to Limit the Doses of Anesthetics Necessary for the Maintenance of Arterial Blood Pressure and Heart Rate in the Recommended Values During Sternotomy in Patients Undergoing Coronary Artery Bypass Graft</t>
+  </si>
+  <si>
     <t>Does Optiflow Anesthesia Allow Anethesia Induction "Without Hands" ?</t>
   </si>
   <si>
+    <t>Low Tidal MEChanical Ventilation Against NO Ventilation During Cardiopulmonary Bypass Heart Surgery : a Randomized Controlled Trial</t>
+  </si>
+  <si>
     <t>Specific Block of the Plantar Branches of the Tibial Nerve Under Ultrasound for Foot Surgery : A Monocentric Pilot Study</t>
   </si>
   <si>
-    <t>Low Tidal MEChanical Ventilation Against NO Ventilation During Cardiopulmonary Bypass Heart Surgery : a Randomized Controlled Trial</t>
-  </si>
-  <si>
-    <t>Interest of Parasternal Block to Limit the Doses of Anesthetics Necessary for the Maintenance of Arterial Blood Pressure and Heart Rate in the Recommended Values During Sternotomy in Patients Undergoing Coronary Artery Bypass Graft</t>
+    <t>Test of Ventricular Stimulation as Immediate Predictor of Hypovolemia After Cardiac Surgery: Non-randomized Open Label Trial.</t>
   </si>
   <si>
     <t>Does Audiovisual Distraction Decrease the Use of Hypnotic Drugs During Oocyte Retrieval?</t>
   </si>
   <si>
-    <t>Test of Ventricular Stimulation as Immediate Predictor of Hypovolemia After Cardiac Surgery: Non-randomized Open Label Trial.</t>
+    <t>Prediction of the Severity of Female SUI by Measuring New Static and Dynamic Ultrasound Parameters of the Urethra</t>
+  </si>
+  <si>
+    <t>Interest of Virtual Reality in the Management of Anxiety and Pain Related to Post-cardiac Surgery Care</t>
   </si>
   <si>
     <t>Interest of Intravenous Dexmedetomidine (Dexdor®) in the Knee Replacement Surgery Performed Under Locoregional Anesthesia: a Randomized, Double Blind, Controlled Clinical Trial</t>
   </si>
   <si>
-    <t>Prediction of the Severity of Female SUI by Measuring New Static and Dynamic Ultrasound Parameters of the Urethra</t>
-  </si>
-  <si>
-    <t>Interest of Virtual Reality in the Management of Anxiety and Pain Related to Post-cardiac Surgery Care</t>
-  </si>
-  <si>
     <t>WALANT Technique (Wide Awake Local Anesthesia No Tourniquet) in Association With Analgesic Troncular Blocks at the Wirst for Carpal Tunnel Release.</t>
   </si>
   <si>
+    <t>Axillary Block in Association With Analgesic Truncal Blocks of the Median and Radial Nerves at the Elbow for Wrist Surgery.</t>
+  </si>
+  <si>
+    <t>Efficacy of Thoraco-Lumbar Interfascial Plane (TLIP) Block for Postoperative Analgesia of Lumbar Spinal Fusion</t>
+  </si>
+  <si>
     <t>Effects of Catalepsy on the Parasympathetic Tone Assessed by ANI (Analgesia/Nociception Index) and on Absorption, Dissociation and Perception of Time During the Hypnotic Trance.</t>
   </si>
   <si>
-    <t>Axillary Block in Association With Analgesic Truncal Blocks of the Median and Radial Nerves at the Elbow for Wrist Surgery.</t>
+    <t>Detection of Right Ventricular Dysfunction by Portal Vein Doppler After Cardiac Surgery</t>
   </si>
   <si>
     <t>Time to Transit Recovery After Treatment With Naloxegol in Cardiac Surgery Intensive Care Trial</t>
   </si>
   <si>
-    <t>Detection of Right Ventricular Dysfunction by Portal Vein Doppler After Cardiac Surgery</t>
-  </si>
-  <si>
-    <t>Efficacy of Thoraco-Lumbar Interfascial Plane (TLIP) Block for Postoperative Analgesia of Lumbar Spinal Fusion</t>
+    <t>Longitudinal Follow-up of Patients With Defibrillator Threshold Testing During Implantable Cardioverter Defibrillator (ICD) Replacement</t>
+  </si>
+  <si>
+    <t>Low Dose of Hydrocortisone and Fludrocortisone in Adult Cardiogenic Shock. A Multicenter, Prospective, Double-blind, Randomized, Placebo-controlled Study</t>
+  </si>
+  <si>
+    <t>Interest of Low-dose Landiolol Administration After Cardiac Surgery for the Prevention of Postoperative Atrial Fibrillation</t>
+  </si>
+  <si>
+    <t>Opioid Free Anesthesia in Total Hip Arthroplasty. A Randomized, Controlled and Triple-blind Clinical Trial</t>
   </si>
   <si>
     <t>Efficacy of a Contract-Relax Technique in the Physical Therapy Management of Diaphragmatic Paresis After Cardiac Surgery</t>
   </si>
   <si>
-    <t>Opioid Free Anesthesia in Total Hip Arthroplasty. A Randomized, Controlled and Triple-blind Clinical Trial</t>
-  </si>
-  <si>
-    <t>Low Dose of Hydrocortisone and Fludrocortisone in Adult Cardiogenic Shock. A Multicenter, Prospective, Double-blind, Randomized, Placebo-controlled Study</t>
-  </si>
-  <si>
-    <t>Interest of Low-dose Landiolol Administration After Cardiac Surgery for the Prevention of Postoperative Atrial Fibrillation</t>
-  </si>
-  <si>
-    <t>Longitudinal Follow-up of Patients With Defibrillator Threshold Testing During Implantable Cardioverter Defibrillator (ICD) Replacement</t>
+    <t>PARA</t>
   </si>
   <si>
     <t>OPTIFLOW</t>
   </si>
   <si>
+    <t>MECANO</t>
+  </si>
+  <si>
     <t>DISTIB</t>
   </si>
   <si>
-    <t>MECANO</t>
-  </si>
-  <si>
-    <t>PARA</t>
+    <t>TESTI</t>
   </si>
   <si>
     <t>Happy-Fiv</t>
   </si>
   <si>
-    <t>TESTI</t>
+    <t>PRESIUS</t>
+  </si>
+  <si>
+    <t>ARVACC</t>
   </si>
   <si>
     <t>DIVA</t>
   </si>
   <si>
-    <t>PRESIUS</t>
-  </si>
-  <si>
-    <t>ARVACC</t>
-  </si>
-  <si>
     <t>WALA</t>
   </si>
   <si>
+    <t>BAXASSO</t>
+  </si>
+  <si>
+    <t>ETLA</t>
+  </si>
+  <si>
     <t>CATALHYPNOANI</t>
   </si>
   <si>
-    <t>BAXASSO</t>
+    <t>DVDDP</t>
   </si>
   <si>
     <t>TRANSIT</t>
   </si>
   <si>
-    <t>DVDDP</t>
-  </si>
-  <si>
-    <t>ETLA</t>
+    <t>T-DEF</t>
+  </si>
+  <si>
+    <t>COCCA</t>
+  </si>
+  <si>
+    <t>LANDIPROTEC</t>
+  </si>
+  <si>
+    <t>OFATHA</t>
   </si>
   <si>
     <t>COREDIA</t>
   </si>
   <si>
-    <t>OFATHA</t>
-  </si>
-  <si>
-    <t>COCCA</t>
-  </si>
-  <si>
-    <t>LANDIPROTEC</t>
-  </si>
-  <si>
-    <t>T-DEF</t>
+    <t>DRUG</t>
   </si>
   <si>
     <t>DEVICE</t>
   </si>
   <si>
     <t>PROCEDURE</t>
-  </si>
-  <si>
-    <t>DRUG</t>
   </si>
   <si>
     <t>DIAGNOSTIC_TEST</t>
@@ -683,6 +683,9 @@
       <c r="C2" t="s">
         <v>15</v>
       </c>
+      <c r="D2" t="s">
+        <v>35</v>
+      </c>
       <c r="F2" t="s">
         <v>38</v>
       </c>
@@ -698,10 +701,10 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
         <v>16</v>
@@ -721,10 +724,10 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
         <v>17</v>
@@ -739,7 +742,7 @@
         <v>65</v>
       </c>
       <c r="I4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -752,9 +755,6 @@
       <c r="C5" t="s">
         <v>18</v>
       </c>
-      <c r="D5" t="s">
-        <v>35</v>
-      </c>
       <c r="F5" t="s">
         <v>38</v>
       </c>
@@ -770,10 +770,10 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
         <v>19</v>
@@ -788,15 +788,15 @@
         <v>67</v>
       </c>
       <c r="I6" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
         <v>20</v>
@@ -811,7 +811,7 @@
         <v>68</v>
       </c>
       <c r="I7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -834,7 +834,7 @@
         <v>69</v>
       </c>
       <c r="I8" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -857,15 +857,15 @@
         <v>70</v>
       </c>
       <c r="I9" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C10" t="s">
         <v>23</v>
@@ -885,10 +885,10 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C11" t="s">
         <v>24</v>
@@ -903,15 +903,15 @@
         <v>72</v>
       </c>
       <c r="I11" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C12" t="s">
         <v>25</v>
@@ -926,15 +926,15 @@
         <v>73</v>
       </c>
       <c r="I12" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C13" t="s">
         <v>26</v>
@@ -949,22 +949,19 @@
         <v>74</v>
       </c>
       <c r="I13" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C14" t="s">
         <v>27</v>
       </c>
-      <c r="D14" t="s">
-        <v>36</v>
-      </c>
       <c r="F14" t="s">
         <v>41</v>
       </c>
@@ -980,10 +977,10 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1003,14 +1000,17 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C16" t="s">
         <v>29</v>
       </c>
+      <c r="D16" t="s">
+        <v>36</v>
+      </c>
       <c r="F16" t="s">
         <v>41</v>
       </c>
@@ -1021,15 +1021,15 @@
         <v>77</v>
       </c>
       <c r="I16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B17" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C17" t="s">
         <v>30</v>
@@ -1044,22 +1044,19 @@
         <v>78</v>
       </c>
       <c r="I17" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C18" t="s">
         <v>31</v>
       </c>
-      <c r="D18" t="s">
-        <v>37</v>
-      </c>
       <c r="F18" t="s">
         <v>42</v>
       </c>
@@ -1070,7 +1067,7 @@
         <v>79</v>
       </c>
       <c r="I18" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1093,7 +1090,7 @@
         <v>80</v>
       </c>
       <c r="I19" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1106,6 +1103,9 @@
       <c r="C20" t="s">
         <v>33</v>
       </c>
+      <c r="D20" t="s">
+        <v>37</v>
+      </c>
       <c r="F20" t="s">
         <v>42</v>
       </c>
@@ -1116,15 +1116,15 @@
         <v>81</v>
       </c>
       <c r="I20" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B21" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C21" t="s">
         <v>34</v>
@@ -1139,7 +1139,7 @@
         <v>82</v>
       </c>
       <c r="I21" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/publipostage2/047wq3n50/liste_essais_cliniques_identifies_047wq3n50.xlsx
+++ b/publipostage2/047wq3n50/liste_essais_cliniques_identifies_047wq3n50.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="94">
   <si>
     <t>statut</t>
   </si>
@@ -52,33 +52,33 @@
     <t>2</t>
   </si>
   <si>
-    <t>1: résultats postés ou publiés dans les 12 mois</t>
-  </si>
-  <si>
-    <t>4: pas de résultats postés ni publiés</t>
-  </si>
-  <si>
-    <t>2: résultats postés ou publiés entre 12 et 36 mois</t>
+    <t>1 : résultats postés ou publiés dans les 12 mois</t>
+  </si>
+  <si>
+    <t>4 : pas de résultats postés ni publiés</t>
+  </si>
+  <si>
+    <t>2 : résultats postés ou publiés entre 12 et 36 mois</t>
+  </si>
+  <si>
+    <t>NCT03098524</t>
+  </si>
+  <si>
+    <t>NCT03554863</t>
+  </si>
+  <si>
+    <t>NCT03504462</t>
   </si>
   <si>
     <t>NCT03734159</t>
   </si>
   <si>
-    <t>NCT03554863</t>
-  </si>
-  <si>
-    <t>NCT03098524</t>
-  </si>
-  <si>
-    <t>NCT03504462</t>
+    <t>NCT04213781</t>
   </si>
   <si>
     <t>NCT03926910</t>
   </si>
   <si>
-    <t>NCT04213781</t>
-  </si>
-  <si>
     <t>NCT03566121</t>
   </si>
   <si>
@@ -100,25 +100,28 @@
     <t>NCT05306262</t>
   </si>
   <si>
+    <t>NCT04433390</t>
+  </si>
+  <si>
     <t>NCT04890860</t>
   </si>
   <si>
-    <t>NCT04433390</t>
-  </si>
-  <si>
     <t>NCT04206371</t>
   </si>
   <si>
     <t>NCT03773822</t>
   </si>
   <si>
+    <t>NCT05068219</t>
+  </si>
+  <si>
+    <t>NCT05072704</t>
+  </si>
+  <si>
     <t>NCT04607122</t>
   </si>
   <si>
-    <t>NCT05072704</t>
-  </si>
-  <si>
-    <t>NCT05068219</t>
+    <t>NCT06040840</t>
   </si>
   <si>
     <t>2018-002842-35</t>
@@ -130,6 +133,9 @@
     <t>2021-003703-18</t>
   </si>
   <si>
+    <t>2019-004829-25</t>
+  </si>
+  <si>
     <t>2019</t>
   </si>
   <si>
@@ -145,24 +151,27 @@
     <t>2023</t>
   </si>
   <si>
+    <t>2025</t>
+  </si>
+  <si>
+    <t>Low Tidal MEChanical Ventilation Against NO Ventilation During Cardiopulmonary Bypass Heart Surgery : a Randomized Controlled Trial</t>
+  </si>
+  <si>
+    <t>Does Optiflow Anesthesia Allow Anethesia Induction "Without Hands" ?</t>
+  </si>
+  <si>
+    <t>Specific Block of the Plantar Branches of the Tibial Nerve Under Ultrasound for Foot Surgery : A Monocentric Pilot Study</t>
+  </si>
+  <si>
     <t>Interest of Parasternal Block to Limit the Doses of Anesthetics Necessary for the Maintenance of Arterial Blood Pressure and Heart Rate in the Recommended Values During Sternotomy in Patients Undergoing Coronary Artery Bypass Graft</t>
   </si>
   <si>
-    <t>Does Optiflow Anesthesia Allow Anethesia Induction "Without Hands" ?</t>
-  </si>
-  <si>
-    <t>Low Tidal MEChanical Ventilation Against NO Ventilation During Cardiopulmonary Bypass Heart Surgery : a Randomized Controlled Trial</t>
-  </si>
-  <si>
-    <t>Specific Block of the Plantar Branches of the Tibial Nerve Under Ultrasound for Foot Surgery : A Monocentric Pilot Study</t>
+    <t>Does Audiovisual Distraction Decrease the Use of Hypnotic Drugs During Oocyte Retrieval?</t>
   </si>
   <si>
     <t>Test of Ventricular Stimulation as Immediate Predictor of Hypovolemia After Cardiac Surgery: Non-randomized Open Label Trial.</t>
   </si>
   <si>
-    <t>Does Audiovisual Distraction Decrease the Use of Hypnotic Drugs During Oocyte Retrieval?</t>
-  </si>
-  <si>
     <t>Prediction of the Severity of Female SUI by Measuring New Static and Dynamic Ultrasound Parameters of the Urethra</t>
   </si>
   <si>
@@ -184,45 +193,48 @@
     <t>Effects of Catalepsy on the Parasympathetic Tone Assessed by ANI (Analgesia/Nociception Index) and on Absorption, Dissociation and Perception of Time During the Hypnotic Trance.</t>
   </si>
   <si>
+    <t>Time to Transit Recovery After Treatment With Naloxegol in Cardiac Surgery Intensive Care Trial</t>
+  </si>
+  <si>
     <t>Detection of Right Ventricular Dysfunction by Portal Vein Doppler After Cardiac Surgery</t>
   </si>
   <si>
-    <t>Time to Transit Recovery After Treatment With Naloxegol in Cardiac Surgery Intensive Care Trial</t>
-  </si>
-  <si>
     <t>Longitudinal Follow-up of Patients With Defibrillator Threshold Testing During Implantable Cardioverter Defibrillator (ICD) Replacement</t>
   </si>
   <si>
     <t>Low Dose of Hydrocortisone and Fludrocortisone in Adult Cardiogenic Shock. A Multicenter, Prospective, Double-blind, Randomized, Placebo-controlled Study</t>
   </si>
   <si>
+    <t>Efficacy of a Contract-Relax Technique in the Physical Therapy Management of Diaphragmatic Paresis After Cardiac Surgery</t>
+  </si>
+  <si>
+    <t>Opioid Free Anesthesia in Total Hip Arthroplasty. A Randomized, Controlled and Triple-blind Clinical Trial</t>
+  </si>
+  <si>
     <t>Interest of Low-dose Landiolol Administration After Cardiac Surgery for the Prevention of Postoperative Atrial Fibrillation</t>
   </si>
   <si>
-    <t>Opioid Free Anesthesia in Total Hip Arthroplasty. A Randomized, Controlled and Triple-blind Clinical Trial</t>
-  </si>
-  <si>
-    <t>Efficacy of a Contract-Relax Technique in the Physical Therapy Management of Diaphragmatic Paresis After Cardiac Surgery</t>
+    <t>WALANT Versus Axillary Brachial Plexus Block in Carpal Tunnel Release: a Non-inferiority Randomized Controlled Trial</t>
+  </si>
+  <si>
+    <t>MECANO</t>
+  </si>
+  <si>
+    <t>OPTIFLOW</t>
+  </si>
+  <si>
+    <t>DISTIB</t>
   </si>
   <si>
     <t>PARA</t>
   </si>
   <si>
-    <t>OPTIFLOW</t>
-  </si>
-  <si>
-    <t>MECANO</t>
-  </si>
-  <si>
-    <t>DISTIB</t>
+    <t>Happy-Fiv</t>
   </si>
   <si>
     <t>TESTI</t>
   </si>
   <si>
-    <t>Happy-Fiv</t>
-  </si>
-  <si>
     <t>PRESIUS</t>
   </si>
   <si>
@@ -244,34 +256,37 @@
     <t>CATALHYPNOANI</t>
   </si>
   <si>
+    <t>TRANSIT</t>
+  </si>
+  <si>
     <t>DVDDP</t>
   </si>
   <si>
-    <t>TRANSIT</t>
-  </si>
-  <si>
     <t>T-DEF</t>
   </si>
   <si>
     <t>COCCA</t>
   </si>
   <si>
+    <t>COREDIA</t>
+  </si>
+  <si>
+    <t>OFATHA</t>
+  </si>
+  <si>
     <t>LANDIPROTEC</t>
   </si>
   <si>
-    <t>OFATHA</t>
-  </si>
-  <si>
-    <t>COREDIA</t>
+    <t>WALAB</t>
+  </si>
+  <si>
+    <t>PROCEDURE</t>
+  </si>
+  <si>
+    <t>DEVICE</t>
   </si>
   <si>
     <t>DRUG</t>
-  </si>
-  <si>
-    <t>DEVICE</t>
-  </si>
-  <si>
-    <t>PROCEDURE</t>
   </si>
   <si>
     <t>DIAGNOSTIC_TEST</t>
@@ -638,7 +653,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -683,20 +698,17 @@
       <c r="C2" t="s">
         <v>15</v>
       </c>
-      <c r="D2" t="s">
-        <v>35</v>
-      </c>
       <c r="F2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="I2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -710,62 +722,65 @@
         <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G3" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="I3" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
         <v>17</v>
       </c>
       <c r="F4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="H4" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="I4" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
         <v>18</v>
       </c>
+      <c r="D5" t="s">
+        <v>36</v>
+      </c>
       <c r="F5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H5" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="I5" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -779,16 +794,16 @@
         <v>19</v>
       </c>
       <c r="F6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G6" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="H6" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="I6" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -802,16 +817,16 @@
         <v>20</v>
       </c>
       <c r="F7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G7" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="H7" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="I7" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -825,16 +840,16 @@
         <v>21</v>
       </c>
       <c r="F8" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G8" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="H8" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="I8" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -848,16 +863,16 @@
         <v>22</v>
       </c>
       <c r="F9" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G9" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="H9" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="I9" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -871,16 +886,16 @@
         <v>23</v>
       </c>
       <c r="F10" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G10" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="H10" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="I10" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -894,16 +909,16 @@
         <v>24</v>
       </c>
       <c r="F11" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G11" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="H11" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="I11" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -917,16 +932,16 @@
         <v>25</v>
       </c>
       <c r="F12" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G12" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="H12" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="I12" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -940,16 +955,16 @@
         <v>26</v>
       </c>
       <c r="F13" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G13" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="H13" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="I13" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -963,65 +978,65 @@
         <v>27</v>
       </c>
       <c r="F14" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G14" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="H14" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I14" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
       </c>
+      <c r="D15" t="s">
+        <v>37</v>
+      </c>
       <c r="F15" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G15" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="H15" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="I15" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C16" t="s">
         <v>29</v>
       </c>
-      <c r="D16" t="s">
-        <v>36</v>
-      </c>
       <c r="F16" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G16" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="H16" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="I16" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1035,16 +1050,16 @@
         <v>30</v>
       </c>
       <c r="F17" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G17" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="H17" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="I17" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -1058,16 +1073,16 @@
         <v>31</v>
       </c>
       <c r="F18" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G18" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="H18" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="I18" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1081,16 +1096,16 @@
         <v>32</v>
       </c>
       <c r="F19" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G19" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="H19" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="I19" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1104,19 +1119,19 @@
         <v>33</v>
       </c>
       <c r="D20" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F20" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G20" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="H20" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="I20" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1129,17 +1144,43 @@
       <c r="C21" t="s">
         <v>34</v>
       </c>
+      <c r="D21" t="s">
+        <v>39</v>
+      </c>
       <c r="F21" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G21" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="H21" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="I21" t="s">
-        <v>85</v>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" t="s">
+        <v>35</v>
+      </c>
+      <c r="F22" t="s">
+        <v>45</v>
+      </c>
+      <c r="G22" t="s">
+        <v>66</v>
+      </c>
+      <c r="H22" t="s">
+        <v>87</v>
+      </c>
+      <c r="I22" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
